--- a/aa.xlsx
+++ b/aa.xlsx
@@ -3023,8 +3023,8 @@
   <sheetPr/>
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
